--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/71_Şırnak_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/71_Şırnak_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1EFB2C8-1F9A-4F38-B967-833DBC297BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42819318-DB4C-4F30-AF9F-6085264B8339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{A2CD4A4F-7B57-4006-AFF6-3CCF471BF0B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{C36D74A3-2C0F-4837-BB48-0AEB7F78ABC7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -932,14 +932,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1D52BABA-F298-44B9-B14E-E8E39C74E942}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{51B0B653-8960-41C2-AEF5-BC47E392255A}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{BC054DBF-29E3-485D-A977-24AAA8AA57AC}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{AC132614-94F7-4B96-AADD-184C60591D94}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{940B6BE0-8AA0-4C89-987A-E5450ECE764D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{09E65292-1B57-47F6-BCC4-1C182068CDD6}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{D8C088FE-3256-454C-AAB9-77910FB34C87}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{FF43DD2E-2EFE-4E5D-816C-165BC198D570}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F2856E02-018D-43B1-806B-421D7CC30E3D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{849A2BC9-1325-47C3-9477-E0FE63D093D4}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{D7B31552-FDB1-4B91-AE2B-99131DBE2287}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{69DC6391-A06E-4FB8-B3A1-A08AC8EADEC3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{CA5ECC84-D01E-402B-ABF4-7C54739EB5A2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A86511FA-F89C-4A5F-B626-B2855BDAEC23}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{48B0DA3F-1664-4BD3-A494-7900F080FCA8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{924DFB64-E270-4F6F-B5A1-AFE1A6E7BE1F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C7ECDD-C4A9-497B-9308-0F11299C6CDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF184BF-443E-48E8-8728-C9CE9DCFF658}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2595,18 +2595,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{EE94AF3C-AFD0-434C-A7B5-FC8F07211F15}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B9401E5-BBB1-4E2A-AC99-D91D52D04243}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE7C9D4A-9DFB-4D8C-9865-A1B9F3C07F1A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{23F03C80-97B1-4ADC-8A1A-D14080236BF4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3F70EEB-A333-436A-ADA7-C5B04106B82D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D79FD439-D980-4BB4-9768-0F43E9A969DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{588133C5-11CE-4732-B77A-D2828DB56DDC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78D22B3F-1C36-4341-9B1A-D1AD66D8CDCB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34F81028-4EE4-4B45-B996-06E3F5C9531E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A9B0246-45D2-4DC1-B3D3-81168CEC78D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1AE66DA-AB81-47CC-AE13-6F7DF3A73B00}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7ADBF14B-37D6-4CE6-98C8-209B9AEAF32C}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{BCC2D69E-EAE7-4A0B-9093-557BBCC83973}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{70CC552C-D71E-44D3-B225-C4DB0D4B817C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4B56089-DC5D-4156-91FB-89CE200E627B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{80D28529-2BD4-4199-8784-4C2F6768530B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0A6D8C8-5A2E-4E6F-A1DE-360393E6A453}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4DDBD4C4-8549-4EA2-8F21-EF1330B6D395}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D24584FF-E474-486E-8762-81AA328B6CF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F50AF259-6093-4C8F-90A1-2DCD408D64AB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF0F1EE7-318B-47F5-B10C-8EB074A55709}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E027CF77-F038-4A1B-B1C7-3390FC87AA82}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{46209DC7-F4D2-4784-8BBE-A46D107D77F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23B6D3D1-00FB-4367-9D55-E4F246CAC358}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2619,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB05F933-77D2-43FE-82F4-1AC9BD85E862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8C570A-19C4-4E1A-A95B-0E73A644AF6F}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3887,18 +3887,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{80F7AED2-DC79-468A-89F8-2FD837B6014D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5FF762F3-DFC2-441D-874A-5094F453DB53}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FDB6206-3156-41A5-9E61-2824E46DF3B7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6B7FB877-1F9B-4D33-B84F-B020D0219811}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C7909EC-7AF0-492F-95BE-A74ECC2882CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ECD543ED-8194-49E9-B2FA-E235C93CDB1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EBA85473-55D7-4F74-A1DF-B59274751BCA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAAA19F9-1FDF-4F22-86ED-741A26A63151}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D3E5075-6567-4526-AA2B-C8256D945D50}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4A8BF44-123F-4B45-9891-D4A988D4DD83}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5F5452E-4D8F-4A19-BCB5-ECB542DDBC7D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EBD31266-6C7E-4DFD-AB51-73B6901619BC}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{8F0C84A8-4275-4C73-BBEF-096E6347621A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C85EF2D9-E5B0-4D26-BDB8-04F95F574337}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F14439DF-3B71-4620-9721-B4AD5FF081A3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E5F9ACDE-46A0-4528-8C21-A29540288901}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60AA0399-FEF8-4E8C-B035-138F9BC84F13}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2BC51FDA-BC28-4FBB-8B0E-5C7ABA05F59D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB474668-425E-4C39-8672-4A327751BD48}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05464963-DAF8-4669-BF79-F38C8F3B22B8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{606FA828-E1AD-406E-964F-405548622498}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2B42B73-AD4B-408D-97A7-67B1B2578C99}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83631DD2-2585-4BA2-AD55-A77D29295F74}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{139F5F00-5922-40D9-BBD0-CF12C7E6FDD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3911,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD7186D-1E5E-44FD-BBD7-C2A503AE28E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AE595A-F1F2-46FC-B2D7-E88D45D1B10B}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5179,17 +5179,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{1895622D-FB96-4388-95A1-2AE7B856E5B0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D1375A7D-AF84-420F-96F5-D2C2F2696E5F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F5C95D0C-9500-42D7-A8E2-7DB47B1839C0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5005861F-C1F6-4EA3-9D58-47EC5B63141A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E6E030A-5D3A-4AC5-9F58-217D1C1E043A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C0ECAA32-12C8-4B1E-84FD-2AB4B038DEF5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7886BE11-29A4-4D47-9157-C121A1B80DCB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5612C263-6ADE-4BB2-ABB3-8275438E1400}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{235CF681-551F-4BA5-A928-FDE37D3F31C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8E4F884-648E-4807-8ACB-201F92568E3F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D024282-C722-417B-A3E5-B08277DA16E6}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{98FD01F1-1FF6-4605-BFB9-9ED292374103}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E9A4E43-7B53-4455-8078-0278FA3399B6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DAF44EFF-AD01-4D87-9CCA-81EBD32B18C7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E4776E92-9A12-4787-902C-083A97371BF5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36EB27ED-8C5E-45F9-97FB-BFD04E2B0022}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEBCA23F-3074-4365-9CDD-9EBC432A9F9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA4F7ACC-E02A-4DA7-B3DA-BB32BA12D1DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C5943AA-7D77-4066-8C93-887698D4ACAF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BFA3D72C-9557-42C1-9DD1-3FAA337BB5EE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1915750B-E7BE-4FC3-AFE5-DDFE4679D145}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C9F5DC4-F295-4908-A617-4742D5D5A1D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5202,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7189FE16-B6F3-4871-B8A3-9344216BB6FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097E7F55-BD2F-4E5F-A2B4-FD67826168BA}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6470,18 +6470,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{AB566EAC-83FC-4BC4-9575-96630C2DBEF8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97C95C5F-A334-4753-B3D4-12E6AAA2C250}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1BFB910C-A7DD-44E4-B551-329F825BF8EA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CAADDB4F-F48B-48A3-8B51-5A2CEB2B80D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{390EE5D0-D974-4EBE-961D-37D2728CE114}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{25D317CE-DCF1-4076-B52C-A91E7472AD06}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6097B8F6-8650-45BB-9C5E-60139FF2D734}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52B8A6C6-CC7B-4921-BA10-2E62C4129A84}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4FCA8809-4E57-4A5F-9F7D-0F1A0121CE17}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{778E6415-BCEF-49D2-8C6E-556D93770F25}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE7BCC6B-4AAB-4CA5-A53B-1093C8304B91}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D864EECA-BAFD-4C05-9EA2-C5402D440163}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{6B1EB9B3-5CAF-4B68-A067-47584CACADF9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B63563F-AAB8-4930-B6C2-4BEE26412AF0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B79EDB0-8543-4443-ADFF-454C256AD6EC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6CC3488E-115E-40F3-8121-0B01C4A1FBA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4CE43A97-6A06-4B50-BE1E-C4DD7B9AE9E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F84E6777-BE7E-471C-B4D6-A91D4401DFBF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1D92B4A-1D66-4AE6-88CB-BBDC92BA21F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B22A091A-F18D-4C20-B54E-CE612F0B1065}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C83F6732-973C-4B81-B552-F2B9ACB8435F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B0EEEA11-876A-4A31-A19F-457E80DC9CEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19776C5B-EE51-4D8D-883C-ED8EDFA7FE61}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{740A9F68-6A27-4A76-B64E-D891A93C50B7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6494,7 +6494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD41566E-971D-4E54-A12F-20F0BA9F002B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D13FBF-9E38-4684-8072-852AA9F149B2}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7780,18 +7780,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{4424F30C-E879-4FEC-BFD8-963C76BF6336}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B8A6A1A-63FE-48CC-9128-3DDB4C89221F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{097B6168-DD78-4AD6-A680-5EFD2671C52C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{44FFED19-91D8-4B47-8B3D-431953804065}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{870C3F37-11E1-4D6B-8031-D78E97AF31F5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4ACEE4EA-A261-4A39-B049-1F474E854854}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76105D6F-D49F-44F7-894F-25C2A81EB7D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05D649C1-6153-4D37-B2C0-E59C64CAF042}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0CB4E90D-D589-46F2-8CDE-A6F2758CB72A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BDA47018-EDD9-4055-AA33-7166152711C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{165F3A0E-E3C7-403B-8D5C-DF9A5E9BA516}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5087E254-1FB6-495A-806C-1E0D8B9E167D}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{D0C5A7D8-CB82-4640-B664-8497A4128E6B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{84B14079-3AAE-4555-BF8B-3770EC4F1D1D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0C42E8D9-D0E3-4FF9-A5D8-7A1E14861B3B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F9B1CFD0-35E1-42F1-8102-D4BE26D797D9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22E9D442-B759-4EE0-83B8-724E514359E9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F48E10C-DBC1-46F0-8128-51ADB4B70686}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A481D7BE-6291-41CA-AD26-D41C04143B6D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A835A01-035F-42E9-92F7-B8CE4A23943B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{583AE43A-B8FE-4F04-A33F-B633515C19B4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6D541F1D-509F-45B0-A6E1-9FE51728955E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3948062B-5C7D-4D72-B2E8-D0A853B2C755}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9F43C920-37A7-46FF-801D-9B09159FA766}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7804,7 +7804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C347839F-6271-4DB4-A477-16F9C2D26059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D319614-BB84-40F2-973C-453BCB0D951D}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9090,18 +9090,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{9EA8DFE0-3E3C-4B74-BC0E-038131A9A8BF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5D12363A-113E-41FD-B5B1-647F85D01123}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5DF8EB1E-D81D-47CF-AD71-7E3A06DC10DB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9249C26E-EF1D-451F-BD7F-06BADFB832F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77ABC68D-1B49-4B09-83CB-625674AB96AD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F83831E-6B47-4B93-8139-EE5CBC80F7BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A77595C6-C888-4AC3-98E7-0CE81F493849}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0CF1F31-7E9B-44D1-AB67-4838C30FE096}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A3312FA-89D4-42CF-9EED-23BAE2D3B9B8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0985D0DE-F34F-416B-BB67-0E0CDF319C2C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63C0C10C-5E9F-4266-854C-1B34EC61C97F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73228E25-4A87-4159-B0DB-54038A329234}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{05E83E44-EA90-447D-A947-46E8696352FC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5966DEEF-D883-44DE-99CB-ED62E8232CFB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E110763A-1AFB-4780-902F-B60A126DFF82}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1DCC9386-FCF1-446B-957B-062B87AD2E42}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B73050A-454F-4E60-8ED5-165DE59018C3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD719773-DA77-4537-9473-60CBA2CF159D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DAEAB66-7151-4BB5-B8B3-A6F3341CA0E2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9532DDBB-8919-450A-899B-FB7F00D986E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECF519CE-0BDA-497F-BD51-C3413A9D16A4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28025F93-6C78-4248-9C55-2EAE793763C1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86C4B395-FBB0-4927-A61A-6EB5FF38DFB9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33000A03-6D31-41F6-8A96-4232CFB2FE5F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9114,7 +9114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBA4627-C66B-4020-B38C-0FCDC556B340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98568554-64CF-4F51-AC38-BD6E0C86FA71}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10400,18 +10400,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{7A40E978-F7B9-42B2-B363-195ABE5CFAD7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{836E94D7-33B4-40DF-978E-CB582A49EB0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E315C61A-0074-43F9-8DE9-CDFBDF7F05A9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{79F80B9D-6172-470E-A858-F2ACA5CF4473}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{895FE4CF-09C7-432C-9270-EDC0F3634909}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C032D952-02B0-42C2-B3B5-9A47995ABDD3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5F038B4-8B3D-478C-A4CB-A9E39E6D8E82}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F0B47360-A792-4716-83E6-0BE0CE82A73E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C75C56BA-E8D4-448F-BCC5-39DFAF63C99A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1EBA1A09-93D5-485F-84D8-AE12F20D56DB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B004EA49-3607-4ED9-BB6C-EBEB41A852B3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A6CF878-706E-4A8B-ACEB-FE9368DD8816}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{B32617FB-9BD8-4EB3-B1F4-E7BDFC3B93F4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C24E5E11-6AD5-4468-A9B6-D7657C9ACAC2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D5F23C2-72D4-455D-9DDF-DAD91AFD79FA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{21A111F7-EDAF-42EB-B452-2CE6DD0ABD42}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B90371E9-55C2-4DA6-BE86-2186EAB6D7FC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDFDA264-3B38-414A-814F-0D2EA303AEB5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9320E7C-BA80-47AF-9A48-F473806547CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F45BC4A-2E3F-44F3-BAA1-7E7B682BBBEC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4476C8D8-648C-4B1C-8399-7C597E0319E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B11C157-29CB-4B0D-9F14-671E65E35FDB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDAC3C2A-29BA-406D-A4D2-C3E400479E54}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D951627-5CA9-47BA-8D18-EBA2B51B3EC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10424,7 +10424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F08427-1492-4E6B-A96F-940CF2C80461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696E7A71-2352-4CDE-95A1-05181A72FBF7}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11714,18 +11714,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{CE01B99B-4A13-431E-BFA7-4CFEBE0BD007}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5AD78187-CC08-4A76-A24E-9864A27E61F9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67EABCF6-6215-44B5-8390-B817A12F2A58}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{221BF3A3-3704-45D3-BF5E-58D554C8F010}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F85FBA23-0E84-4125-87A6-4B332AE7BADE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D16711FD-795A-4705-8312-60328F9D3512}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5BF2BFB-C157-4444-B88C-71022FC1303A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C08E1CF-807A-44CF-B070-27F1B8511310}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6FBE6A77-76C6-4EC4-B5D2-CD768FDC13ED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F0E4D0D-8411-4B67-90E0-32C3B13C5B2C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93483AE7-CD92-4E0E-8ECC-85D32DE75A9D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3B15C430-47E8-4E74-82AA-D56E9B7C3FB0}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{F3F7AB8D-DA59-4373-A45F-AC0FE5C2B65D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6432ABD4-47F5-4927-B107-62AED0F84140}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44B4AC56-C4E2-4786-9869-85167F19577B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5692F986-D8B6-40D3-B698-605D16696873}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74ED322D-47CB-416D-B50F-9028479C58AF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B5A5F0D-D1ED-4A6C-B341-8CFD12673FC0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A96C609-C080-44BE-B297-237D8BEA0205}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FE0AA4D-D9D6-488D-89EC-C19276C1B3FB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A84FE910-8A4E-4181-9720-2C1CE899EDC1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EF37CC35-EEFD-455A-B66D-ADF47FC3FFD8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D76B10D-3744-4FBF-9250-D603B064A869}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04C21752-6AF5-469D-9985-D08458C1C534}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11738,7 +11738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914EC4D0-0590-4003-B46E-48D26AA033A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FEB40-7B9F-4FF0-AA99-0F5F2518C670}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13016,18 +13016,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{5B98E67C-0F9A-4D07-92B7-A84E9A5D11C2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1298AA3D-516D-45EB-A61F-D78587A10575}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B435D52-A2DB-4F58-B9C9-2F2C8DE2EDB1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2676D6D5-AB8A-4D63-ACBC-3CBFEF5137B5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FAD681A6-0D36-4364-B063-D19D469DC2DB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B877396-AC51-4290-B5EA-FBEBDEE240D7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC356092-80FD-465B-9AFE-AE7DA42449D6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2ED93327-8458-43B0-AC2F-C8B6E5E4384B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C0AE916-316B-4D55-83F0-9D6A2F05F256}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5DC04AD7-3840-4750-935C-B73A675F54D6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7F02DAC-E7EB-476B-BAA4-2708201CE35D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19A4D3D2-0C92-4C33-B2B3-2CBF3A5327E5}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{962BF903-E365-4F6E-8914-08B0B551F6A0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FEFF86FD-0318-44AA-ADC6-E5BCB899A0C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13C1BCED-AC26-4953-94B6-5A73A69D97A9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9B162274-E236-444D-82E8-AC634682AE7F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BEA8325-F70A-46E9-B97C-1262776DAE9E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{161F7026-3E2C-48F2-9AC4-5D3A4D9C7BAF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D534D203-DB31-4C79-B149-3A90E68FEBE9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22D73A1F-F090-4B7D-8A48-F158A5DD90B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6670E3DF-5CE7-41CB-82A1-95E612B1E810}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{959DC69F-099B-437C-8703-683E35646A73}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A1CAE95-B048-4699-A477-939D240C9947}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{84D0AB01-4C5D-4EB0-81A7-A45EEDF26A2B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13040,7 +13040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D907B093-30D8-4D3C-9E96-C965E898D4F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3833E-D91D-47C0-84E1-F7E50737EEE7}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14322,18 +14322,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{44C655A9-97C7-4C2E-98AA-696A128A232D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AD6C2EA7-ADA5-4446-B2CC-015EAD871A53}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA6C3D55-6BC4-4FFB-BA43-75A77BD0A979}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FC5B19B8-2526-4953-9C60-5C4AFC9C5467}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{627420A4-BCCE-4142-8DCF-5DDA8182AE88}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7F2C5F8C-718C-4BD1-BDA1-6580FCDB5C3A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FAD2469-D1EB-4006-B032-9C5B1B9A212A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D163CA5A-DD6E-498E-AEA9-078E34B16B72}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6E3B410-212A-4EC1-8B95-8C29429FD4AE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA3FC0B9-168A-40D6-A9E8-584EA7C93FF6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{415F7B5B-A4D0-4910-800F-369B0FAC8EDB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BEE4700A-612C-43E1-B264-D2699F074A84}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{C66B6EDA-C77E-4833-94F5-A971FC7B9E11}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C7387CBD-480B-471A-8CB1-9C9DA5F6D424}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{534EC9F7-796A-4604-9BA3-396D73ECB62D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FBB372B8-1855-43EC-9A8E-1FDA076DDDDC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0761E69D-24A4-4072-BE6F-4A718746AE33}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D950108-69DE-4AFF-A655-991F9FFE25AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FD14405-3A06-441A-88B5-F44726A624F2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F9DC66F-A69A-4425-A04C-459B642173C1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2988F52-7B5E-4EA6-A6DA-DDDD47E43FF9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{025F4318-C820-48D1-B5F1-EAA0C1369EE8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DEA17716-3003-48D6-B0A6-2A04A0012AE6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{65437CC4-8BD3-4DC1-909C-04701BEE8422}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14346,7 +14346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3637EB-89DF-43E2-82AE-D0FB3F0E26B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54964839-9BE8-4AF6-A9C3-7B5A96F2F905}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15618,18 +15618,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{6D6E58DD-C979-4F47-8902-594F5827266C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC2F9ABD-D56C-4F35-90DE-6C923B4903B0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{151CE497-D44A-4670-A874-176EB5878DFD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{130CE9BA-0964-4A56-806D-3A44F5176983}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F6C38065-7A60-4826-A296-4A469A2E706B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04618C42-1452-4DA8-89A6-D43822A41C93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3A874C7-DA50-4170-A343-86D87F33EC4F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7527A2B-63D9-4020-8129-CD8526956339}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{758125FF-5E20-418E-BC8B-90BEFDE7A109}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C4F1328A-5B26-4402-969F-C930CA00BE1B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EAFF6CD-140A-4A59-BBCF-0E07B6B326F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3CCD6465-EB18-4D78-A61E-54A65C80DBFA}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{78129D16-D228-4C97-96CE-EAC614D6518A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1C4860C1-684C-40FC-8581-D735B504AE13}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1DF5DA7-7C7B-407D-93C0-18C7D8EF1FA2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F6FBE3F7-A6B0-4893-8178-80622CD3CA40}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{119E345C-B2CA-4508-8536-AACB5065045F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ACC1532B-30DA-4A04-A0FB-30BC542AC4AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C0EA218-9391-4CF1-88E7-44640FE0DDEC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC424D2D-3A5F-485D-B804-0829C0690F4E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{841DD1E1-66F6-4416-94E8-F7FDC67D854F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A73743CF-F0BF-4B99-B312-C56C8F2F1625}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{766B58BF-834F-4D64-B648-95DAE03BF006}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94B8EE63-C010-4CF0-8CD9-70E250822CA3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15642,7 +15642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B413B4E-4B8E-4852-9A55-356781C2710B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24243253-8147-4F79-B881-1BD9EC237290}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16910,18 +16910,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{7BC84820-07B7-4FEB-B53D-F6666A0B30E9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C419C6C9-6958-4C0B-BD74-D23E4A6EF005}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30865ECB-15BA-4E88-9D9A-6E6945ADBDED}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{04971253-974D-4468-8FF6-21221EEAB1A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0C2FE1B-BBF2-437C-BF25-E3FDC28ED34F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F025ED1-F385-40A9-ADD7-622EF55BFBFC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C3D49B8-9CCE-4D52-9E85-2239B6D9C604}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36656C82-896E-4BC3-AB2E-90DCF6E0C99F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{368F551D-9222-4A15-947E-5C296BF99533}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F8D5DBD7-BA0A-4D3E-A9B3-3D777C2D23CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02522825-57B6-4381-AF93-FFA12AB8B960}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0DA6DCD4-CC9E-4E60-B1AD-1288E4E70C1E}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{EFF3EF04-4285-40E0-9CB0-62C50923B684}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A9CE4D41-E074-4807-9702-5C5BAE15CB3C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E1ADC77-4287-4E0F-943B-A861E39D2DB2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4B5D2538-8671-4382-B5C0-8EC678D35BE6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CEBBA0DD-64BE-4639-8045-A1AE80FE6671}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{075801A6-8469-442A-8CB2-247C221EF3EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{478E263C-2995-4FD7-9B0B-80020C6AC29E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF73D36D-B634-4220-8691-10D5C1BA25CB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56734AA1-0D5F-4A77-AA84-5AB8C5ADADF9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8905D178-2704-4436-BDB9-1A82B6D222D2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D1FECC5-B529-4FA5-A455-2D907CFB9C0C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85274501-AD60-43FC-966F-F5DDB13BF9A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
